--- a/Data/Forecasts/IDA1/2023-12-02_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-02_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45262</v>
       </c>
       <c r="B2" t="n">
-        <v>132.071533203125</v>
+        <v>134.11376953125</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45262.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>132.9577026367188</v>
+        <v>134.4760131835938</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45262.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>134.2352142333984</v>
+        <v>138.0943145751953</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45262.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>129.5640563964844</v>
+        <v>133.3759002685547</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>128.4058532714844</v>
+        <v>134.2959899902344</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45262.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>131.7760620117188</v>
+        <v>134.4599609375</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45262.125</v>
       </c>
       <c r="B8" t="n">
-        <v>136.9292907714844</v>
+        <v>136.9717864990234</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45262.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>136.4160461425781</v>
+        <v>134.8649749755859</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45262.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>136.4365386962891</v>
+        <v>135.5842742919922</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45262.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>136.2739868164062</v>
+        <v>133.2368469238281</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45262.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>135.8926391601562</v>
+        <v>132.3266906738281</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45262.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>138.95947265625</v>
+        <v>136.4253387451172</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45262.25</v>
       </c>
       <c r="B14" t="n">
-        <v>139.700927734375</v>
+        <v>138.4982757568359</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>146.6102447509766</v>
+        <v>147.0182952880859</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45262.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>154.8472137451172</v>
+        <v>155.4115600585938</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45262.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>187.2246551513672</v>
+        <v>190.9487762451172</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45262.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>175.9425964355469</v>
+        <v>182.5352020263672</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>176.2691345214844</v>
+        <v>189.5859527587891</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45262.375</v>
       </c>
       <c r="B20" t="n">
-        <v>168.9581909179688</v>
+        <v>182.4674835205078</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>170.5948638916016</v>
+        <v>184.5615386962891</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>171.779296875</v>
+        <v>185.1528167724609</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45262.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>169.0303802490234</v>
+        <v>181.9319763183594</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>168.4894714355469</v>
+        <v>179.4960632324219</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>171.4873809814453</v>
+        <v>180.8661499023438</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45262.5</v>
       </c>
       <c r="B26" t="n">
-        <v>172.8464965820312</v>
+        <v>181.6646575927734</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>172.1145172119141</v>
+        <v>180.5810852050781</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>175.8886108398438</v>
+        <v>185.1621551513672</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45262.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>166.5249938964844</v>
+        <v>173.7883605957031</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>172.3178558349609</v>
+        <v>178.9892730712891</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>173.1796417236328</v>
+        <v>180.5341644287109</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45262.625</v>
       </c>
       <c r="B32" t="n">
-        <v>182.8761444091797</v>
+        <v>190.8003234863281</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45262.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>205.3113708496094</v>
+        <v>210.7864685058594</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>201.4293975830078</v>
+        <v>208.1833953857422</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45262.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>233.3931732177734</v>
+        <v>247.9057769775391</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45262.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>245.0794067382812</v>
+        <v>265.2348327636719</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45262.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>246.311767578125</v>
+        <v>265.0682373046875</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45262.75</v>
       </c>
       <c r="B38" t="n">
-        <v>223.2273864746094</v>
+        <v>244.3307800292969</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45262.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>216.1436920166016</v>
+        <v>231.3908843994141</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45262.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>184.2315979003906</v>
+        <v>197.5352172851562</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45262.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>179.0440673828125</v>
+        <v>187.0646209716797</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45262.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>167.9773712158203</v>
+        <v>174.1491546630859</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45262.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>150.2936706542969</v>
+        <v>153.9716339111328</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45262.875</v>
       </c>
       <c r="B44" t="n">
-        <v>148.2535247802734</v>
+        <v>156.7312316894531</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45262.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>136.6220703125</v>
+        <v>135.7577209472656</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>138.9585723876953</v>
+        <v>140.0220642089844</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45262.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>122.6578369140625</v>
+        <v>123.2612991333008</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45262.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>136.2427368164062</v>
+        <v>136.7943115234375</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45262.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>123.9115905761719</v>
+        <v>123.5925903320312</v>
       </c>
     </row>
   </sheetData>
